--- a/Data/7. Covers/corrected_names.xlsx
+++ b/Data/7. Covers/corrected_names.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarlot/Documents/Post-Doc – LOV/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/7. Covers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CD035A-EBC9-794E-AE65-EBD55023504A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FE36BB-9911-FF44-942A-8B7672DF8A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20500" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39140" yWindow="1180" windowWidth="31900" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$H$56</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -80,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
   <si>
     <t>Dictyota sp.</t>
   </si>
@@ -564,22 +567,24 @@
   <si>
     <t>Species</t>
   </si>
+  <si>
+    <t>primary.producers</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>filter.feeders</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -739,63 +744,63 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1109,10 +1114,12 @@
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
     <col min="3" max="3" width="38.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
         <v>114</v>
       </c>
@@ -1126,10 +1133,16 @@
         <v>86</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1145,11 +1158,17 @@
       <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1165,11 +1184,17 @@
       <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1185,11 +1210,17 @@
       <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1205,11 +1236,17 @@
       <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1225,11 +1262,17 @@
       <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1245,11 +1288,17 @@
       <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1265,11 +1314,17 @@
       <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1285,11 +1340,17 @@
       <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1305,11 +1366,17 @@
       <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1325,11 +1392,17 @@
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1345,11 +1418,17 @@
       <c r="E12" s="8">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1365,18 +1444,24 @@
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>108</v>
       </c>
       <c r="D14" t="s">
@@ -1385,11 +1470,17 @@
       <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1405,11 +1496,17 @@
       <c r="E15" s="8">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1425,11 +1522,17 @@
       <c r="E16" s="8">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1445,11 +1548,17 @@
       <c r="E17" s="8">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1465,11 +1574,17 @@
       <c r="E18" s="8">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1485,11 +1600,17 @@
       <c r="E19" s="8">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1505,11 +1626,17 @@
       <c r="E20" s="8">
         <v>0</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1525,11 +1652,17 @@
       <c r="E21" s="8">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1545,11 +1678,17 @@
       <c r="E22" s="8">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1565,11 +1704,17 @@
       <c r="E23" s="8">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1585,11 +1730,17 @@
       <c r="E24" s="8">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1605,11 +1756,17 @@
       <c r="E25" s="8">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1625,11 +1782,17 @@
       <c r="E26" s="8">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1645,11 +1808,17 @@
       <c r="E27" s="8">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1665,11 +1834,17 @@
       <c r="E28" s="8">
         <v>0</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1685,11 +1860,17 @@
       <c r="E29" s="8">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1705,11 +1886,17 @@
       <c r="E30" s="8">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1725,11 +1912,17 @@
       <c r="E31" s="8">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1743,13 +1936,19 @@
         <v>62</v>
       </c>
       <c r="E32" s="8">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1765,11 +1964,17 @@
       <c r="E33" s="8">
         <v>1</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1</v>
+      </c>
+      <c r="H33" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1785,11 +1990,17 @@
       <c r="E34" s="8">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1805,11 +2016,17 @@
       <c r="E35" s="8">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1825,11 +2042,17 @@
       <c r="E36" s="8">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1845,11 +2068,17 @@
       <c r="E37" s="8">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1865,11 +2094,17 @@
       <c r="E38" s="8">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1883,13 +2118,19 @@
         <v>62</v>
       </c>
       <c r="E39" s="8">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1905,11 +2146,17 @@
       <c r="E40" s="8">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1925,11 +2172,17 @@
       <c r="E41" s="8">
         <v>1</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1945,11 +2198,17 @@
       <c r="E42" s="8">
         <v>1</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1965,11 +2224,17 @@
       <c r="E43" s="8">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1985,11 +2250,17 @@
       <c r="E44" s="8">
         <v>1</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2005,11 +2276,17 @@
       <c r="E45" s="8">
         <v>1</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>1</v>
       </c>
@@ -2023,13 +2300,19 @@
         <v>66</v>
       </c>
       <c r="E46" s="18">
-        <v>1</v>
-      </c>
-      <c r="F46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2045,11 +2328,17 @@
       <c r="E47" s="8">
         <v>0</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="8">
+        <v>0</v>
+      </c>
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2065,11 +2354,17 @@
       <c r="E48" s="8">
         <v>0</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2085,11 +2380,17 @@
       <c r="E49" s="8">
         <v>0</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="8">
+        <v>0</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2105,11 +2406,17 @@
       <c r="E50" s="8">
         <v>0</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="8">
+        <v>0</v>
+      </c>
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2125,11 +2432,17 @@
       <c r="E51" s="8">
         <v>0</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="8">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2145,18 +2458,24 @@
       <c r="E52" s="8">
         <v>1</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="8">
+        <v>0</v>
+      </c>
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D53" t="s">
@@ -2165,11 +2484,17 @@
       <c r="E53" s="8">
         <v>0</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="8">
+        <v>0</v>
+      </c>
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2185,11 +2510,17 @@
       <c r="E54" s="8">
         <v>0</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="8">
+        <v>0</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="20">
         <v>1</v>
       </c>
@@ -2205,11 +2536,17 @@
       <c r="E55" s="8">
         <v>1</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="8">
+        <v>0</v>
+      </c>
+      <c r="G55" s="8">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2219,9 +2556,24 @@
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="D56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
